--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/42.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/42.xlsx
@@ -479,13 +479,13 @@
         <v>-7.57775565560697</v>
       </c>
       <c r="E2" t="n">
-        <v>-17.57630738472326</v>
+        <v>-17.57951457322795</v>
       </c>
       <c r="F2" t="n">
-        <v>2.45641780848821</v>
+        <v>2.458006735719958</v>
       </c>
       <c r="G2" t="n">
-        <v>-9.146178177081211</v>
+        <v>-9.043152135374713</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-6.904683142447293</v>
       </c>
       <c r="E3" t="n">
-        <v>-18.02640402391205</v>
+        <v>-18.04238618735999</v>
       </c>
       <c r="F3" t="n">
-        <v>2.361766635544737</v>
+        <v>2.347456512445277</v>
       </c>
       <c r="G3" t="n">
-        <v>-9.099312157254964</v>
+        <v>-8.993318488380249</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-6.21304735643925</v>
       </c>
       <c r="E4" t="n">
-        <v>-18.45296498404351</v>
+        <v>-18.46486482675758</v>
       </c>
       <c r="F4" t="n">
-        <v>2.514792550479175</v>
+        <v>2.521280262591571</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.130587134182619</v>
+        <v>-9.010239341146642</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-5.602503769066466</v>
       </c>
       <c r="E5" t="n">
-        <v>-18.97335087495794</v>
+        <v>-19.01989910933784</v>
       </c>
       <c r="F5" t="n">
-        <v>2.912977714755063</v>
+        <v>2.897924462611832</v>
       </c>
       <c r="G5" t="n">
-        <v>-8.89842286509343</v>
+        <v>-8.804030809513902</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-5.060511462505024</v>
       </c>
       <c r="E6" t="n">
-        <v>-19.48928776962347</v>
+        <v>-19.53013542199655</v>
       </c>
       <c r="F6" t="n">
-        <v>3.03966654969743</v>
+        <v>3.018101140407468</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.636010310518637</v>
+        <v>-8.515066058644894</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-4.611333919819272</v>
       </c>
       <c r="E7" t="n">
-        <v>-20.13879233189312</v>
+        <v>-20.17304471400273</v>
       </c>
       <c r="F7" t="n">
-        <v>3.173278218363349</v>
+        <v>3.162370844043261</v>
       </c>
       <c r="G7" t="n">
-        <v>-8.366469583931881</v>
+        <v>-8.268268992003028</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-4.25420277487052</v>
       </c>
       <c r="E8" t="n">
-        <v>-20.70978922189385</v>
+        <v>-20.74677944784893</v>
       </c>
       <c r="F8" t="n">
-        <v>3.375849328887103</v>
+        <v>3.359143592422854</v>
       </c>
       <c r="G8" t="n">
-        <v>-8.217921999287539</v>
+        <v>-8.099989375643815</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-3.989569103550794</v>
       </c>
       <c r="E9" t="n">
-        <v>-21.14121963286476</v>
+        <v>-21.18394466387473</v>
       </c>
       <c r="F9" t="n">
-        <v>3.663352266702903</v>
+        <v>3.626058922322076</v>
       </c>
       <c r="G9" t="n">
-        <v>-8.513345128227741</v>
+        <v>-8.393232007521375</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-3.810453713979626</v>
       </c>
       <c r="E10" t="n">
-        <v>-21.79085130931295</v>
+        <v>-21.82147604832731</v>
       </c>
       <c r="F10" t="n">
-        <v>4.010359307095925</v>
+        <v>3.973325080079044</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.151807959426247</v>
+        <v>-8.051241088173807</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-3.699526227564971</v>
       </c>
       <c r="E11" t="n">
-        <v>-22.69211039118752</v>
+        <v>-22.71509361246889</v>
       </c>
       <c r="F11" t="n">
-        <v>4.155465030905961</v>
+        <v>4.126062543608334</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.863830787944356</v>
+        <v>-7.738520652938459</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-3.646676593559378</v>
       </c>
       <c r="E12" t="n">
-        <v>-23.53155775924369</v>
+        <v>-23.53564007997756</v>
       </c>
       <c r="F12" t="n">
-        <v>4.615422796945319</v>
+        <v>4.578183231640028</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.42367838872287</v>
+        <v>-7.292022322803717</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-3.626460455025412</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.1001785919071</v>
+        <v>-24.11152597684521</v>
       </c>
       <c r="F13" t="n">
-        <v>5.42246582748757</v>
+        <v>5.384248460808896</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.135657216179177</v>
+        <v>-7.019988202714836</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-3.627293712943024</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.26527292935473</v>
+        <v>-25.2613617238612</v>
       </c>
       <c r="F14" t="n">
-        <v>5.686628646520719</v>
+        <v>5.638569709018944</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.461595172417012</v>
+        <v>-6.378975845373017</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-3.62833827946994</v>
       </c>
       <c r="E15" t="n">
-        <v>-25.69959763239086</v>
+        <v>-25.711678368359</v>
       </c>
       <c r="F15" t="n">
-        <v>6.035214836131755</v>
+        <v>5.977764116438637</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.047735852125795</v>
+        <v>-5.958364806598589</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-3.620875325839803</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.69236914480034</v>
+        <v>-26.72156629380955</v>
       </c>
       <c r="F16" t="n">
-        <v>6.332182891241902</v>
+        <v>6.282574138563317</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.770182043284167</v>
+        <v>-5.674421065781903</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-3.599749120537221</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.72143175518293</v>
+        <v>-27.73579810186136</v>
       </c>
       <c r="F17" t="n">
-        <v>6.711569824114503</v>
+        <v>6.652940853766458</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.45612690917415</v>
+        <v>-5.344124650859996</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-3.56661679954267</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.25538219564961</v>
+        <v>-28.27221015728554</v>
       </c>
       <c r="F18" t="n">
-        <v>7.089631836126168</v>
+        <v>7.037607914055326</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.277189257845063</v>
+        <v>-5.170266677665634</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-3.534555590191238</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.24639855459387</v>
+        <v>-29.2528667106788</v>
       </c>
       <c r="F19" t="n">
-        <v>7.239440784542176</v>
+        <v>7.184390567220714</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.021543088774081</v>
+        <v>-4.914033827770621</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.51382639055976</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.82414716307781</v>
+        <v>-29.81711677120319</v>
       </c>
       <c r="F20" t="n">
-        <v>7.44180655677752</v>
+        <v>7.383964716535049</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.920506872862417</v>
+        <v>-4.818888865133589</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-3.527328277936097</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.57478572139647</v>
+        <v>-30.58312636711143</v>
       </c>
       <c r="F21" t="n">
-        <v>7.737288353800126</v>
+        <v>7.690857455585034</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.833888338201285</v>
+        <v>-4.732240996431256</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-3.583448128659687</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.80879803508135</v>
+        <v>-30.81301480350406</v>
       </c>
       <c r="F22" t="n">
-        <v>7.676366439231498</v>
+        <v>7.634658321649847</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.963715915552211</v>
+        <v>-4.861315666724678</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-3.697777741262866</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.26684419943575</v>
+        <v>-31.28122032412791</v>
       </c>
       <c r="F23" t="n">
-        <v>7.782629003483895</v>
+        <v>7.731074426072277</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.61220609983476</v>
+        <v>-4.526643590656882</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-3.869133646743733</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.34941219190764</v>
+        <v>-31.36181804683244</v>
       </c>
       <c r="F24" t="n">
-        <v>8.056579614264606</v>
+        <v>8.020396074442569</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.794253159531205</v>
+        <v>-4.705620354040904</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-4.094738472792695</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.50251877545538</v>
+        <v>-31.51583887466429</v>
       </c>
       <c r="F25" t="n">
-        <v>7.99383410013462</v>
+        <v>7.96515029684643</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.668493235893552</v>
+        <v>-4.576677686932889</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-4.359819734966346</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.41510333267494</v>
+        <v>-31.43671763203357</v>
       </c>
       <c r="F26" t="n">
-        <v>7.642246060307299</v>
+        <v>7.606927874700705</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.692136473101953</v>
+        <v>-4.593119417026324</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-4.642794575878923</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.60649083999063</v>
+        <v>-31.60887178633482</v>
       </c>
       <c r="F27" t="n">
-        <v>7.682326138602267</v>
+        <v>7.658301558858247</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.345574332333819</v>
+        <v>-4.260549613911301</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-4.920592536893631</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.27324390942454</v>
+        <v>-31.27232966514043</v>
       </c>
       <c r="F28" t="n">
-        <v>7.634472539388904</v>
+        <v>7.616265877816513</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.537198956482551</v>
+        <v>-4.433053332203529</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-5.162977907795788</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.08307865382558</v>
+        <v>-31.08403934367493</v>
       </c>
       <c r="F29" t="n">
-        <v>7.288614415609607</v>
+        <v>7.284761878198478</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.271896998849411</v>
+        <v>-4.192910203907533</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-5.347128764232592</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.24733706203676</v>
+        <v>-31.26265676505423</v>
       </c>
       <c r="F30" t="n">
-        <v>7.022148874342141</v>
+        <v>7.001424374233289</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.420806370001907</v>
+        <v>-4.347016589359559</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-5.444410176612108</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.86842191832681</v>
+        <v>-30.89213360163135</v>
       </c>
       <c r="F31" t="n">
-        <v>6.973366363824064</v>
+        <v>6.967103546027546</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.346845474119218</v>
+        <v>-4.255694830092455</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-5.441049664807615</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.83777273427812</v>
+        <v>-30.83445554311892</v>
       </c>
       <c r="F32" t="n">
-        <v>6.763168402587922</v>
+        <v>6.758015389350194</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.439692603528799</v>
+        <v>-4.356955940319997</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-5.325064048448037</v>
       </c>
       <c r="E33" t="n">
-        <v>-30.33660797386097</v>
+        <v>-30.32618950022757</v>
       </c>
       <c r="F33" t="n">
-        <v>6.773650433310588</v>
+        <v>6.772320623442788</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.144005468217783</v>
+        <v>-4.076419837289551</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-5.099137691316036</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.98043893459935</v>
+        <v>-29.96879576474579</v>
       </c>
       <c r="F34" t="n">
-        <v>6.715353915429494</v>
+        <v>6.716395273892148</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.135435039180082</v>
+        <v>-4.083484452212243</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-4.773645811647655</v>
       </c>
       <c r="E35" t="n">
-        <v>-29.53038874097579</v>
+        <v>-29.53591087423198</v>
       </c>
       <c r="F35" t="n">
-        <v>6.772765523067677</v>
+        <v>6.772648186902871</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.19770143063711</v>
+        <v>-4.125994366920068</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-4.367830963162372</v>
       </c>
       <c r="E36" t="n">
-        <v>-29.200290330832</v>
+        <v>-29.20918343432292</v>
       </c>
       <c r="F36" t="n">
-        <v>6.736762876499715</v>
+        <v>6.752393031453242</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.354618995037612</v>
+        <v>-4.28657379746389</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-3.910931461419112</v>
       </c>
       <c r="E37" t="n">
-        <v>-29.06307301960173</v>
+        <v>-29.0565168613932</v>
       </c>
       <c r="F37" t="n">
-        <v>6.901145954385997</v>
+        <v>6.901967307539638</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.241800272576683</v>
+        <v>-4.194900029702367</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-3.432812011516342</v>
       </c>
       <c r="E38" t="n">
-        <v>-28.35850601749345</v>
+        <v>-28.35774577692564</v>
       </c>
       <c r="F38" t="n">
-        <v>6.596927502092214</v>
+        <v>6.622389449855107</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.223544720935623</v>
+        <v>-4.178189404231253</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-2.972748855061841</v>
       </c>
       <c r="E39" t="n">
-        <v>-27.82008946925384</v>
+        <v>-27.83863347230005</v>
       </c>
       <c r="F39" t="n">
-        <v>6.552809104125173</v>
+        <v>6.569593064699292</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.255953947456401</v>
+        <v>-4.219956189895306</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-2.558292684302137</v>
       </c>
       <c r="E40" t="n">
-        <v>-27.45347751132449</v>
+        <v>-27.46330197062355</v>
       </c>
       <c r="F40" t="n">
-        <v>6.646228247338184</v>
+        <v>6.646810039155347</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.097965690552045</v>
+        <v>-4.071921950971989</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-2.221884088290886</v>
       </c>
       <c r="E41" t="n">
-        <v>-27.22709449285543</v>
+        <v>-27.2332301964734</v>
       </c>
       <c r="F41" t="n">
-        <v>6.480730475886246</v>
+        <v>6.473841865210763</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.480584256963676</v>
+        <v>-4.461937584773263</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-1.977711002302207</v>
       </c>
       <c r="E42" t="n">
-        <v>-26.59481390177791</v>
+        <v>-26.59630504887232</v>
       </c>
       <c r="F42" t="n">
-        <v>6.377787547296485</v>
+        <v>6.372155411385799</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.269398716340418</v>
+        <v>-4.243477201932035</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-1.837605992897526</v>
       </c>
       <c r="E43" t="n">
-        <v>-26.1789892007262</v>
+        <v>-26.18399065475105</v>
       </c>
       <c r="F43" t="n">
-        <v>6.31710030505747</v>
+        <v>6.315540711866924</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.261918535834038</v>
+        <v>-4.248801330410105</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-1.799924113682974</v>
       </c>
       <c r="E44" t="n">
-        <v>-25.46514041908108</v>
+        <v>-25.48613381456761</v>
       </c>
       <c r="F44" t="n">
-        <v>6.444551825071075</v>
+        <v>6.439785043375833</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.386597988954103</v>
+        <v>-4.371241618385123</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-1.856397254469081</v>
       </c>
       <c r="E45" t="n">
-        <v>-24.95392141604212</v>
+        <v>-24.95220537463183</v>
       </c>
       <c r="F45" t="n">
-        <v>6.479684228416726</v>
+        <v>6.481175375511135</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.505655084177215</v>
+        <v>-4.484285235161931</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-1.99513786437626</v>
       </c>
       <c r="E46" t="n">
-        <v>-24.48179002290414</v>
+        <v>-24.49173915187831</v>
       </c>
       <c r="F46" t="n">
-        <v>6.365198354614179</v>
+        <v>6.352188707341318</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.485047920233169</v>
+        <v>-4.469632881581786</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-2.194056392293551</v>
       </c>
       <c r="E47" t="n">
-        <v>-24.41680045462224</v>
+        <v>-24.41619910677761</v>
       </c>
       <c r="F47" t="n">
-        <v>6.543441766968164</v>
+        <v>6.535130455294409</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.58233426787791</v>
+        <v>-4.549279692450698</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-2.438839975235008</v>
       </c>
       <c r="E48" t="n">
-        <v>-23.89481585846233</v>
+        <v>-23.9138683182227</v>
       </c>
       <c r="F48" t="n">
-        <v>6.509287164995897</v>
+        <v>6.498497126840615</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.637115589821692</v>
+        <v>-4.591295817464965</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-2.706004067230073</v>
       </c>
       <c r="E49" t="n">
-        <v>-23.14975565697883</v>
+        <v>-23.15573491237707</v>
       </c>
       <c r="F49" t="n">
-        <v>6.670917732016105</v>
+        <v>6.676632981043528</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.808186829101913</v>
+        <v>-4.767784076353728</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-2.987826832911271</v>
       </c>
       <c r="E50" t="n">
-        <v>-22.99011491575346</v>
+        <v>-23.00536861717823</v>
       </c>
       <c r="F50" t="n">
-        <v>6.508201805471441</v>
+        <v>6.497416656323026</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.913569372118264</v>
+        <v>-4.85880760620195</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-3.270993052052442</v>
       </c>
       <c r="E51" t="n">
-        <v>-22.47767855000463</v>
+        <v>-22.4685507741841</v>
       </c>
       <c r="F51" t="n">
-        <v>6.590518014089688</v>
+        <v>6.59428743838408</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.715217474520658</v>
+        <v>-4.669612818466075</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.554719111554239</v>
       </c>
       <c r="E52" t="n">
-        <v>-21.90803591490604</v>
+        <v>-21.91201067748884</v>
       </c>
       <c r="F52" t="n">
-        <v>6.508788486295471</v>
+        <v>6.501767872434582</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.893460886874643</v>
+        <v>-4.839510696098237</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.836349982588364</v>
       </c>
       <c r="E53" t="n">
-        <v>-21.47055291343389</v>
+        <v>-21.48248209018916</v>
       </c>
       <c r="F53" t="n">
-        <v>6.863124147981999</v>
+        <v>6.865299756037776</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.921093553686447</v>
+        <v>-4.867065138800169</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-4.116532666535014</v>
       </c>
       <c r="E54" t="n">
-        <v>-20.84019859106194</v>
+        <v>-20.82871431393156</v>
       </c>
       <c r="F54" t="n">
-        <v>6.925444318514564</v>
+        <v>6.900358824280423</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.935066335312089</v>
+        <v>-4.890635040905567</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-4.397661558293582</v>
       </c>
       <c r="E55" t="n">
-        <v>-20.55663619278087</v>
+        <v>-20.55274943232168</v>
       </c>
       <c r="F55" t="n">
-        <v>6.849654934063648</v>
+        <v>6.824965449385727</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.269728633366151</v>
+        <v>-5.202861686447355</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-4.678160791100028</v>
       </c>
       <c r="E56" t="n">
-        <v>-20.00520510826154</v>
+        <v>-19.99944585817231</v>
       </c>
       <c r="F56" t="n">
-        <v>6.720810047092971</v>
+        <v>6.688488822695797</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.34649581919045</v>
+        <v>-5.278264839355785</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-4.963417879991315</v>
       </c>
       <c r="E57" t="n">
-        <v>-19.73824577730052</v>
+        <v>-19.73959514319578</v>
       </c>
       <c r="F57" t="n">
-        <v>6.750471651754545</v>
+        <v>6.722741204805403</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.556620445323587</v>
+        <v>-5.493092690094895</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-5.245146071199188</v>
       </c>
       <c r="E58" t="n">
-        <v>-19.36593812637121</v>
+        <v>-19.35056219977476</v>
       </c>
       <c r="F58" t="n">
-        <v>6.418288080182008</v>
+        <v>6.379484032679304</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.904507506952655</v>
+        <v>-5.8286056753438</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-5.523385950849513</v>
       </c>
       <c r="E59" t="n">
-        <v>-18.78408764112593</v>
+        <v>-18.76404760197844</v>
       </c>
       <c r="F59" t="n">
-        <v>6.595353241881067</v>
+        <v>6.572497134778239</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.750518457665434</v>
+        <v>-5.681759465089143</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-5.784420851018186</v>
       </c>
       <c r="E60" t="n">
-        <v>-18.19610145226267</v>
+        <v>-18.19387695413822</v>
       </c>
       <c r="F60" t="n">
-        <v>6.425910041887529</v>
+        <v>6.402393918857668</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.077597906068911</v>
+        <v>-5.999349351163938</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-6.021145438006363</v>
       </c>
       <c r="E61" t="n">
-        <v>-17.94433715464401</v>
+        <v>-17.93690097519944</v>
       </c>
       <c r="F61" t="n">
-        <v>6.132740745112974</v>
+        <v>6.109244178110581</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.118817122963871</v>
+        <v>-6.033934185740494</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-6.21945786209876</v>
       </c>
       <c r="E62" t="n">
-        <v>-17.66076497834921</v>
+        <v>-17.64398590678196</v>
       </c>
       <c r="F62" t="n">
-        <v>6.20499537759911</v>
+        <v>6.180036997543509</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.180907510173691</v>
+        <v>-6.10206738543782</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-6.369361025453395</v>
       </c>
       <c r="E63" t="n">
-        <v>-17.12624496858253</v>
+        <v>-17.10478222843678</v>
       </c>
       <c r="F63" t="n">
-        <v>6.05336771862861</v>
+        <v>6.028448450627944</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.056091164861352</v>
+        <v>-5.968817503280054</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-6.465814218439923</v>
       </c>
       <c r="E64" t="n">
-        <v>-17.16497079197537</v>
+        <v>-17.1433760486442</v>
       </c>
       <c r="F64" t="n">
-        <v>5.915336387755</v>
+        <v>5.882589819760404</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.307542566040522</v>
+        <v>-6.208769960308239</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-6.503297498652316</v>
       </c>
       <c r="E65" t="n">
-        <v>-16.79374361156365</v>
+        <v>-16.77566895317667</v>
       </c>
       <c r="F65" t="n">
-        <v>5.979739275212871</v>
+        <v>5.949877221269754</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.202086687921167</v>
+        <v>-6.110975155949339</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-6.489046086727555</v>
       </c>
       <c r="E66" t="n">
-        <v>-16.74042899167994</v>
+        <v>-16.71596929032476</v>
       </c>
       <c r="F66" t="n">
-        <v>5.992274688819641</v>
+        <v>5.958613876540931</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.301636645745289</v>
+        <v>-6.208369061745152</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-6.422702402652826</v>
       </c>
       <c r="E67" t="n">
-        <v>-16.56248380874484</v>
+        <v>-16.5413144090111</v>
       </c>
       <c r="F67" t="n">
-        <v>5.726840728001094</v>
+        <v>5.711059013834693</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.255987988628904</v>
+        <v>-6.153069505073478</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-6.320715659734818</v>
       </c>
       <c r="E68" t="n">
-        <v>-16.3536009903559</v>
+        <v>-16.3162587559064</v>
       </c>
       <c r="F68" t="n">
-        <v>5.603051074130808</v>
+        <v>5.589171183635636</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.351636518973228</v>
+        <v>-6.263106382627132</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-6.188520991418099</v>
       </c>
       <c r="E69" t="n">
-        <v>-16.31490939001113</v>
+        <v>-16.26041163046563</v>
       </c>
       <c r="F69" t="n">
-        <v>5.738227224994139</v>
+        <v>5.730409703013942</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.981118244557211</v>
+        <v>-5.892925449684933</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-6.043031353354267</v>
       </c>
       <c r="E70" t="n">
-        <v>-16.10251137568488</v>
+        <v>-16.05290262300629</v>
       </c>
       <c r="F70" t="n">
-        <v>5.698953832832212</v>
+        <v>5.683871246647779</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.88007713963868</v>
+        <v>-5.786462436150993</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-5.892943054341544</v>
       </c>
       <c r="E71" t="n">
-        <v>-16.15881806777114</v>
+        <v>-16.11357519822471</v>
       </c>
       <c r="F71" t="n">
-        <v>5.485978915695663</v>
+        <v>5.482175268353203</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.63043467100027</v>
+        <v>-5.529330008992468</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-5.747990386015122</v>
       </c>
       <c r="E72" t="n">
-        <v>-16.11859131927016</v>
+        <v>-16.06561404086027</v>
       </c>
       <c r="F72" t="n">
-        <v>5.472377698591905</v>
+        <v>5.463421038011717</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.636125474993358</v>
+        <v>-5.516281249664672</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-5.614768188837092</v>
       </c>
       <c r="E73" t="n">
-        <v>-16.06968169457355</v>
+        <v>-16.02289878786404</v>
       </c>
       <c r="F73" t="n">
-        <v>5.512379552777003</v>
+        <v>5.509983939412215</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.64422167036497</v>
+        <v>-5.544231701922825</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-5.490767337531254</v>
       </c>
       <c r="E74" t="n">
-        <v>-16.22842285853541</v>
+        <v>-16.18207996244392</v>
       </c>
       <c r="F74" t="n">
-        <v>5.42338496077855</v>
+        <v>5.435275025478887</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.278123058156645</v>
+        <v>-5.17753174186987</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-5.378791605699647</v>
       </c>
       <c r="E75" t="n">
-        <v>-16.48997983690849</v>
+        <v>-16.44579788185218</v>
       </c>
       <c r="F75" t="n">
-        <v>5.309969779479857</v>
+        <v>5.299130851255907</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.295312806300717</v>
+        <v>-5.189886262222563</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-5.267152716409889</v>
       </c>
       <c r="E76" t="n">
-        <v>-16.56579366639374</v>
+        <v>-16.51661025731257</v>
       </c>
       <c r="F76" t="n">
-        <v>5.216472412156976</v>
+        <v>5.207975318222278</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.101840137556292</v>
+        <v>-4.983858623843901</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-5.15755183801717</v>
       </c>
       <c r="E77" t="n">
-        <v>-16.72928205602338</v>
+        <v>-16.67981508454393</v>
       </c>
       <c r="F77" t="n">
-        <v>5.230259411521676</v>
+        <v>5.213377670810218</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.813999858266675</v>
+        <v>-4.706143477775663</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-5.038767776111962</v>
       </c>
       <c r="E78" t="n">
-        <v>-17.1203537153079</v>
+        <v>-17.08169144900434</v>
       </c>
       <c r="F78" t="n">
-        <v>5.046222526030396</v>
+        <v>5.038052995555781</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.300395019876659</v>
+        <v>-4.19481691658563</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-4.91348027874553</v>
       </c>
       <c r="E79" t="n">
-        <v>-17.27028977790245</v>
+        <v>-17.23560716318855</v>
       </c>
       <c r="F79" t="n">
-        <v>5.178475050787313</v>
+        <v>5.167044552732466</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.076175386946205</v>
+        <v>-3.983734045106577</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-4.778787805930694</v>
       </c>
       <c r="E80" t="n">
-        <v>-17.67082166547446</v>
+        <v>-17.62658104233574</v>
       </c>
       <c r="F80" t="n">
-        <v>4.991612319326957</v>
+        <v>4.962224499049931</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.684575714920052</v>
+        <v>-3.590217882388593</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-4.638706872725243</v>
       </c>
       <c r="E81" t="n">
-        <v>-18.55340474111741</v>
+        <v>-18.49611046964403</v>
       </c>
       <c r="F81" t="n">
-        <v>4.943876056278399</v>
+        <v>4.927380547109428</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.403643602333385</v>
+        <v>-3.329648483402627</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-4.499393517259314</v>
       </c>
       <c r="E82" t="n">
-        <v>-19.27874757790665</v>
+        <v>-19.24477386918845</v>
       </c>
       <c r="F82" t="n">
-        <v>4.806827415785039</v>
+        <v>4.780759231170649</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.257931641671852</v>
+        <v>-3.188326850907583</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-4.364493673650858</v>
       </c>
       <c r="E83" t="n">
-        <v>-19.90223284563058</v>
+        <v>-19.87962607787796</v>
       </c>
       <c r="F83" t="n">
-        <v>4.574604478613447</v>
+        <v>4.532490573461841</v>
       </c>
       <c r="G83" t="n">
-        <v>-3.1236746240995</v>
+        <v>-3.044986058576504</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-4.244558689290894</v>
       </c>
       <c r="E84" t="n">
-        <v>-21.09881727630801</v>
+        <v>-21.07410823560262</v>
       </c>
       <c r="F84" t="n">
-        <v>4.353782705455498</v>
+        <v>4.326154927650562</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.659722539449873</v>
+        <v>-2.596175228193712</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-4.138517768133578</v>
       </c>
       <c r="E85" t="n">
-        <v>-21.94311942818302</v>
+        <v>-21.94094870913411</v>
       </c>
       <c r="F85" t="n">
-        <v>4.462225766770539</v>
+        <v>4.428071164798271</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.674428672105553</v>
+        <v>-2.618561990637315</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-4.055692361616342</v>
       </c>
       <c r="E86" t="n">
-        <v>-22.82775099770321</v>
+        <v>-22.81473646142348</v>
       </c>
       <c r="F86" t="n">
-        <v>4.136955250907821</v>
+        <v>4.103005987223963</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.441198599519375</v>
+        <v>-2.413766381989115</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.990822624873044</v>
       </c>
       <c r="E87" t="n">
-        <v>-23.57946024852572</v>
+        <v>-23.57418012110945</v>
       </c>
       <c r="F87" t="n">
-        <v>3.990065039591361</v>
+        <v>3.942216329384864</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.410529859443217</v>
+        <v>-2.368518623435818</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.947741033263403</v>
       </c>
       <c r="E88" t="n">
-        <v>-24.83813506641297</v>
+        <v>-24.83509410414175</v>
       </c>
       <c r="F88" t="n">
-        <v>4.10976259471404</v>
+        <v>4.062016553651748</v>
       </c>
       <c r="G88" t="n">
-        <v>-2.335747610406886</v>
+        <v>-2.296087986702473</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-3.920596571559838</v>
       </c>
       <c r="E89" t="n">
-        <v>-26.18656227236305</v>
+        <v>-26.18323285868668</v>
       </c>
       <c r="F89" t="n">
-        <v>3.616114682354771</v>
+        <v>3.574704794192001</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.276800854612493</v>
+        <v>-2.258931534513919</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-3.90613446798866</v>
       </c>
       <c r="E90" t="n">
-        <v>-27.50084954336146</v>
+        <v>-27.50961308817041</v>
       </c>
       <c r="F90" t="n">
-        <v>3.700601610021928</v>
+        <v>3.661460221045407</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.33266753608073</v>
+        <v>-2.30983098500537</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-3.899207665669569</v>
       </c>
       <c r="E91" t="n">
-        <v>-29.20097234728993</v>
+        <v>-29.22731676079231</v>
       </c>
       <c r="F91" t="n">
-        <v>3.305066287467908</v>
+        <v>3.257872704181578</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.569319913473748</v>
+        <v>-2.569119464192205</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.892368448531211</v>
       </c>
       <c r="E92" t="n">
-        <v>-30.87689456722718</v>
+        <v>-30.89527967755021</v>
       </c>
       <c r="F92" t="n">
-        <v>3.019763402742219</v>
+        <v>2.973914296344291</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.767305135556336</v>
+        <v>-2.752017211083493</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-3.886854831354593</v>
       </c>
       <c r="E93" t="n">
-        <v>-32.475704926356</v>
+        <v>-32.50107642749186</v>
       </c>
       <c r="F93" t="n">
-        <v>2.748526190772645</v>
+        <v>2.693427083382513</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.179218631114521</v>
+        <v>-3.160914189404791</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-3.877995249046027</v>
       </c>
       <c r="E94" t="n">
-        <v>-34.45719251997886</v>
+        <v>-34.47143664148562</v>
       </c>
       <c r="F94" t="n">
-        <v>2.185904169534939</v>
+        <v>2.151172664752376</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.065089654813259</v>
+        <v>-3.070741346751412</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-3.875559398291027</v>
       </c>
       <c r="E95" t="n">
-        <v>-36.67976193121617</v>
+        <v>-36.69799792682976</v>
       </c>
       <c r="F95" t="n">
-        <v>1.78035127191061</v>
+        <v>1.726694421546219</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.210219823657629</v>
+        <v>-3.232596808087498</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-3.883669200245044</v>
       </c>
       <c r="E96" t="n">
-        <v>-38.48483949006013</v>
+        <v>-38.51957588384956</v>
       </c>
       <c r="F96" t="n">
-        <v>1.557960127548383</v>
+        <v>1.516643130516085</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.489284335621134</v>
+        <v>-3.51467783728789</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-3.911437545735477</v>
       </c>
       <c r="E97" t="n">
-        <v>-40.55566635066557</v>
+        <v>-40.58534995585804</v>
       </c>
       <c r="F97" t="n">
-        <v>1.091270199053283</v>
+        <v>1.059530766473271</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.814271289085571</v>
+        <v>-3.876019445814707</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-3.973798876941257</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.30764440592797</v>
+        <v>-42.3588127517971</v>
       </c>
       <c r="F98" t="n">
-        <v>0.6727516552178959</v>
+        <v>0.6460430107039395</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.120670238441998</v>
+        <v>-4.162559249277725</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.068921901669188</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.81451934449012</v>
+        <v>-44.86263450557085</v>
       </c>
       <c r="F99" t="n">
-        <v>0.4613216642512921</v>
+        <v>0.4530005745638029</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.304839127118684</v>
+        <v>-4.369950920572258</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.226493799144428</v>
       </c>
       <c r="E100" t="n">
-        <v>-47.40605477046319</v>
+        <v>-47.46198500902069</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.3491827831527349</v>
+        <v>-0.3775830240426438</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.643231737412203</v>
+        <v>-4.709120882957615</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.419083895675369</v>
       </c>
       <c r="E101" t="n">
-        <v>-49.19104095558757</v>
+        <v>-49.26423672189559</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.3990604312090012</v>
+        <v>-0.4315234368053165</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.026280536428121</v>
+        <v>-5.096124888528869</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.711922830434988</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.42330404519025</v>
+        <v>-51.50634749357994</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.8058355805500588</v>
+        <v>-0.8324611119472776</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.285158339038135</v>
+        <v>-5.368442571016031</v>
       </c>
     </row>
   </sheetData>
